--- a/biology/Botanique/Guido_Frederico_João_Pabst/Guido_Frederico_João_Pabst.xlsx
+++ b/biology/Botanique/Guido_Frederico_João_Pabst/Guido_Frederico_João_Pabst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guido_Frederico_Jo%C3%A3o_Pabst</t>
+          <t>Guido_Frederico_João_Pabst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guido Frederico João Pabst est un botaniste brésilien, né en 1914 et mort en 1980, Il est diplômé en biologie en 1939.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guido_Frederico_Jo%C3%A3o_Pabst</t>
+          <t>Guido_Frederico_João_Pabst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1958, il fonde l’Herbarium Bradeanum à Rio de Janeiro et fait paraître en 1975, avec Fritz Dungs (1915-1977), Orchidaceae Brasiliensis.
 Helmut Sick (1910-) lui dédie le cinclode à longue queue, Cinclodes pabsti en 1969, et Leslie Andrew Garay (1924-) le genre d’orchidée Pabstia en 1973.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guido_Frederico_Jo%C3%A3o_Pabst</t>
+          <t>Guido_Frederico_João_Pabst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
